--- a/Resources/Ceos.xlsx
+++ b/Resources/Ceos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nestor\Documents\Bootcamp\Repos\Projects\03_Data_Engineering_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nestor\Documents\Bootcamp\Repos\Projects\03_Data_Engineering_Project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14B5E5AF-A026-431B-8215-B747ACA60342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAEAFDB-2800-435A-AB9D-C909F8341A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="435" windowWidth="28110" windowHeight="14130" xr2:uid="{424B80FC-0839-46EB-8A9D-F1F1A60FC4DE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{424B80FC-0839-46EB-8A9D-F1F1A60FC4DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
-  <si>
-    <t>CEOS of Faang companies</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Apple</t>
   </si>
@@ -60,9 +57,6 @@
     <t>Mark Zuckerberg</t>
   </si>
   <si>
-    <t>Meta</t>
-  </si>
-  <si>
     <t>Andy Jassy</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>Reed Hastings</t>
   </si>
   <si>
-    <t>https://www.historyoasis.com/post/netflix-ceo-history</t>
-  </si>
-  <si>
     <t>Eric Schmidt</t>
   </si>
   <si>
@@ -93,10 +84,34 @@
     <t>Sundar Pichai</t>
   </si>
   <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>https://thecioleaders.com/web-stories/the-history-of-google-ceos/</t>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Michael Scott</t>
+  </si>
+  <si>
+    <t>Mike Markkula</t>
+  </si>
+  <si>
+    <t>John Sculley</t>
+  </si>
+  <si>
+    <t>Michael Spindler</t>
+  </si>
+  <si>
+    <t>Gilbert Frank Amelio</t>
+  </si>
+  <si>
+    <t>FirstYear</t>
+  </si>
+  <si>
+    <t>LastYear</t>
+  </si>
+  <si>
+    <t>Facebook</t>
   </si>
 </sst>
 </file>
@@ -132,9 +147,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -450,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C8BA7F-6DF3-45A3-B907-C1A58B0DA869}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,54 +477,69 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D2" s="1">
+        <f ca="1">YEAR(TODAY())</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D3" s="1">
         <v>2011</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1998</v>
+      </c>
+      <c r="D4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>1997</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2011</v>
-      </c>
-      <c r="N4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>1998</v>
@@ -518,157 +547,209 @@
       <c r="D5">
         <v>2001</v>
       </c>
-      <c r="N5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="D6">
-        <v>2001</v>
-      </c>
-      <c r="N6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2011</v>
+      </c>
+      <c r="D7">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>2001</v>
-      </c>
-      <c r="D7">
-        <v>2011</v>
-      </c>
-      <c r="N7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
       <c r="C8">
-        <v>2011</v>
-      </c>
-      <c r="D8">
         <v>2015</v>
       </c>
-      <c r="N8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <f ca="1">YEAR(TODAY())</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>2015</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2021</v>
+      </c>
+      <c r="D9" s="1">
+        <f ca="1">YEAR(TODAY())</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
+        <v>1994</v>
+      </c>
+      <c r="D10">
         <v>2021</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1999</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>2023</v>
+      </c>
+      <c r="D12" s="1">
+        <f ca="1">YEAR(TODAY())</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1994</v>
-      </c>
-      <c r="D11">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>1999</v>
-      </c>
-      <c r="D12">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
       </c>
       <c r="C13">
         <v>2023</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>2004</v>
+      </c>
+      <c r="D14" s="1">
+        <f ca="1">YEAR(TODAY())</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>1977</v>
+      </c>
+      <c r="D15">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>2023</v>
-      </c>
-      <c r="D14">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
+      <c r="C16">
+        <v>1981</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>1983</v>
+      </c>
+      <c r="D17">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>1993</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>1996</v>
+      </c>
+      <c r="D19">
+        <v>1997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>